--- a/biology/Médecine/Thuès-les-Bains/Thuès-les-Bains.xlsx
+++ b/biology/Médecine/Thuès-les-Bains/Thuès-les-Bains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thu%C3%A8s-les-Bains</t>
+          <t>Thuès-les-Bains</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Thuès-les-Bains est un lieu-dit situé sur le territoire de la commune de Nyer, dans les Pyrénées-Orientales, en France. Une station thermale y a été implantée au XIXe siècle, en bordure du cours d'eau, la Têt, station thermale ensuite transformée en un centre de rééducation fonctionnelle, puis une maison d'accueil spécialisée.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thu%C3%A8s-les-Bains</t>
+          <t>Thuès-les-Bains</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Localisation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La station thermale se trouve administrativement sur le territoire de la commune de Nyer[1] bien qu'elle soit à une distance routière de l'ordre de quatre kilomètres du centre du bourg, et à proximité (moins de deux kilomètres) de la commune en amont de Thuès-Entre-Valls.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La station thermale se trouve administrativement sur le territoire de la commune de Nyer bien qu'elle soit à une distance routière de l'ordre de quatre kilomètres du centre du bourg, et à proximité (moins de deux kilomètres) de la commune en amont de Thuès-Entre-Valls.
 Elle est en bordure de la RN 116, qui relie Bourg-Madame (en amont) à Perpignan.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thu%C3%A8s-les-Bains</t>
+          <t>Thuès-les-Bains</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Située près des anciennes sources chaudes d'Eixalada, l'emplacement de Thuès-les-Bains faisait jadis partie du territoire de la commune d'En[2], jusqu'à ce que celle-ci soit intégrée à la commune de Nyer en 1822[3].
-Les bâtiments de bains n'ont toutefois été édifiés qu'après la réunification des deux communes, en l'occurrence en 1860[4], au moment du grand développement du thermalisme pyrénéen, permis par le développement des chemins de fer, et sous l'impulsion de l'impératrice Eugénie, épouse de Napoléon III.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Située près des anciennes sources chaudes d'Eixalada, l'emplacement de Thuès-les-Bains faisait jadis partie du territoire de la commune d'En, jusqu'à ce que celle-ci soit intégrée à la commune de Nyer en 1822.
+Les bâtiments de bains n'ont toutefois été édifiés qu'après la réunification des deux communes, en l'occurrence en 1860, au moment du grand développement du thermalisme pyrénéen, permis par le développement des chemins de fer, et sous l'impulsion de l'impératrice Eugénie, épouse de Napoléon III.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thu%C3%A8s-les-Bains</t>
+          <t>Thuès-les-Bains</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,11 +596,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activités sportives
-Légèrement en amont du lieu-dit, coule le torrent de Faget, qui permet la pratique du canyoning en hiver, même par temps de neige en raison des résurgences de sources d'eau thermale — pouvant aller jusqu'à 60 °C — que l'on trouve tout le long de la descente[5],[6].
-Le torrent est à toute proximité du lieu-dit de Thuès-les-Bains (commune de Nyer) ; néanmoins, d'un point de vue administratif, il se trouve en lisière de la commune voisine de Thuès-Entre-Valls[7].
-Monastère Saint-André d'Eixalada
-Le monastère Saint-André d'Eixalada, construit en 840 près des sources chaudes, sur la rive droite de la Têt, environ un kilomètre en aval de l'actuel établissement thermal de Thuès-les-Bains, en fin du défilé des Graus, est détruit par une crue en octobre 878, moins de quarante ans après son édification ; les moines déménagent alors pour fonder l'abbaye Saint-Michel de Cuxa[2], près de Prades. Il ne reste aucune trace de ces bâtiments du haut Moyen Âge.
+          <t>Activités sportives</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Légèrement en amont du lieu-dit, coule le torrent de Faget, qui permet la pratique du canyoning en hiver, même par temps de neige en raison des résurgences de sources d'eau thermale — pouvant aller jusqu'à 60 °C — que l'on trouve tout le long de la descente,.
+Le torrent est à toute proximité du lieu-dit de Thuès-les-Bains (commune de Nyer) ; néanmoins, d'un point de vue administratif, il se trouve en lisière de la commune voisine de Thuès-Entre-Valls.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thuès-les-Bains</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thu%C3%A8s-les-Bains</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tourisme et culture à proximité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Monastère Saint-André d'Eixalada</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monastère Saint-André d'Eixalada, construit en 840 près des sources chaudes, sur la rive droite de la Têt, environ un kilomètre en aval de l'actuel établissement thermal de Thuès-les-Bains, en fin du défilé des Graus, est détruit par une crue en octobre 878, moins de quarante ans après son édification ; les moines déménagent alors pour fonder l'abbaye Saint-Michel de Cuxa, près de Prades. Il ne reste aucune trace de ces bâtiments du haut Moyen Âge.
 </t>
         </is>
       </c>
